--- a/csv/Unit_Status.xlsx
+++ b/csv/Unit_Status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\cpe106lproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\drpdayan\LocalRepo\SoftDes\Project\CPE106L-4_E01_4Q2324_Project\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3CB2BC-CF2B-4B87-AE8F-001524121E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C8AEF-7E46-4C57-BF6F-4E41CACE24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6CF161B7-BE1C-4D05-A482-B708D168C87D}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{6CF161B7-BE1C-4D05-A482-B708D168C87D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Vacant</t>
   </si>
@@ -56,24 +56,15 @@
     <t>4E</t>
   </si>
   <si>
-    <t>08/28/2023</t>
-  </si>
-  <si>
     <t>4D</t>
   </si>
   <si>
     <t>4C</t>
   </si>
   <si>
-    <t>10/26/2023</t>
-  </si>
-  <si>
     <t>4B</t>
   </si>
   <si>
-    <t>12/15/2023</t>
-  </si>
-  <si>
     <t>4A</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>3E</t>
   </si>
   <si>
-    <t>12/28/2023</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t>2H</t>
   </si>
   <si>
-    <t>04/15/2024</t>
-  </si>
-  <si>
     <t>2G</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>2E</t>
   </si>
   <si>
-    <t>11/16/2023</t>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
@@ -162,13 +144,49 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>4I</t>
+  </si>
+  <si>
+    <t>4J</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>3I</t>
+  </si>
+  <si>
+    <t>3J</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>2I</t>
+  </si>
+  <si>
+    <t>2J</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>2L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +198,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,15 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333244E1-38ED-4985-BF39-E2613F4E5DC6}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,25 +586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
+      <c r="A1" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>56.4</v>
@@ -591,11 +612,16 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>57.58</v>
@@ -612,7 +638,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>57.58</v>
@@ -629,7 +655,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>58.75</v>
@@ -646,24 +672,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>22.82</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45430</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -680,7 +706,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>22.82</v>
@@ -697,7 +723,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -705,8 +731,8 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
+      <c r="D9" s="1">
+        <v>45118</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -714,7 +740,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>22.82</v>
@@ -723,15 +749,15 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -748,7 +774,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>22.82</v>
@@ -756,8 +782,8 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
+      <c r="D12" s="1">
+        <v>45397</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -765,7 +791,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>35</v>
@@ -782,7 +808,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>22.82</v>
@@ -791,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>45298</v>
+        <v>45372</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -799,16 +825,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>22.82</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>45148</v>
+      <c r="D15" s="1">
+        <v>45304</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -816,7 +842,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>22.82</v>
@@ -824,8 +850,8 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
-        <v>45171</v>
+      <c r="D16" s="1">
+        <v>45299</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -833,7 +859,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -841,8 +867,8 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
+      <c r="D17" s="1">
+        <v>45348</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -850,24 +876,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>22.82</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45298</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -876,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>45224</v>
+        <v>45148</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -884,24 +910,24 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>22.82</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45171</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>35</v>
@@ -909,8 +935,8 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
-        <v>45156</v>
+      <c r="D21" s="1">
+        <v>45288</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -918,7 +944,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>22.82</v>
@@ -926,8 +952,8 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="1">
+        <v>45245</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -935,7 +961,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -943,8 +969,8 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
+      <c r="D23" s="2">
+        <v>45224</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -952,24 +978,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>22.82</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>35</v>
@@ -977,8 +1003,8 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
+      <c r="D25" s="2">
+        <v>45156</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -986,7 +1012,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>22.82</v>
@@ -995,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>45261</v>
+        <v>45143</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1003,7 +1029,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>35</v>
@@ -1012,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>45275</v>
+        <v>45219</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1020,7 +1046,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>22.82</v>
@@ -1028,8 +1054,8 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
-        <v>45026</v>
+      <c r="D28" s="2">
+        <v>45210</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1037,22 +1063,227 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45388</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>22.82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45275</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45225</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>22.82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45237</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>22.82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45303</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45275</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>22.82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45338</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>22.82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45170</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45182</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>22.82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45320</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45411</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>